--- a/src/main/resources/xls_samples/Reestr_na_oplatu_BiK_TTS.xlsx
+++ b/src/main/resources/xls_samples/Reestr_na_oplatu_BiK_TTS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJ\xlsToPdfConverters\src\main\resources\xls_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10954274-7972-459F-B481-3113C40F6921}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>№000-0000240</t>
   </si>
   <si>
-    <t>от 12.04.2022 г.</t>
-  </si>
-  <si>
     <t>Приложение №2</t>
   </si>
   <si>
@@ -40,12 +36,6 @@
     <t>Финансовый директор</t>
   </si>
   <si>
-    <t>ООО "ОЭК"</t>
-  </si>
-  <si>
-    <t>Реестр на оплату №000003 от 12.04.2022 г.</t>
-  </si>
-  <si>
     <t>на 2 листах</t>
   </si>
   <si>
@@ -88,115 +78,43 @@
     <t>Примечания</t>
   </si>
   <si>
-    <t>12.04.2022</t>
-  </si>
-  <si>
-    <t>000-0009231</t>
-  </si>
-  <si>
-    <t>ОАО "Тевризнефтегаз"</t>
-  </si>
-  <si>
-    <t>11.104.078.14 от 28.02.13</t>
-  </si>
-  <si>
     <t>руб.</t>
   </si>
   <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з кассу посредством банковских карт за 07-08 апреля 2022г. за природный газ по договору №11.104.078.14 от 28.02.2013г. В том числе НДС 4202,34</t>
-  </si>
-  <si>
     <t>СТО - Северное территориальное отделение</t>
   </si>
   <si>
     <t>Транзитные платежи</t>
   </si>
   <si>
-    <t>Условия оплаты: п. 2.1.15. Договора в редакции ДС № 3: «перечислять Принципалу в полном объёме денежные средства, поступившие в кассы Агента, в том числе по платежным картам VISA, MasterCard, и на расчетный счет Агента, в том числе через Интернет-портал Агента, в оплату услуг Принципала, в течение 3-х рабочих дней после их поступления».</t>
-  </si>
-  <si>
-    <t>000-0009232</t>
-  </si>
-  <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з кассу за 07-08 апреля 2022г. за природный газ по договору №11.104.078.14 от 28.02.2013г. В том числе НДС 8488,70</t>
-  </si>
-  <si>
-    <t>000-0009225</t>
-  </si>
-  <si>
     <t>Акционерное общество "Омские распределительные тепловые сети"</t>
   </si>
   <si>
-    <t>05.101.628.18 от 29.12.2018</t>
-  </si>
-  <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з кассу по договору №05.101.628.18 от 29.12.2018 по услуге пеня теплоэнергия, отопление, ГВС за 08.04.2022. В том числе НДС 43317,00</t>
-  </si>
-  <si>
     <t>УУЖКХ - управление по услугам жилищно-коммунального хозяйства</t>
   </si>
   <si>
     <t>Условия оплаты: не позднее 2-х рабочих дней со дня приема</t>
   </si>
   <si>
-    <t>000-0008961</t>
-  </si>
-  <si>
     <t>ООО "Омсктехуглерод"</t>
   </si>
   <si>
-    <t>11.101.168.14 от 27.03.14</t>
-  </si>
-  <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з интернет по договору №11.101.168.14 от 27.03.2014 по услуге пеня теплоэнергия, отопление, ГВС за 07.04.2022. В том числе НДС 8802,72</t>
-  </si>
-  <si>
     <t>Условия оплаты: не позднее 3-х календарных дней с момента принятия платежей</t>
   </si>
   <si>
-    <t>000-0009227</t>
-  </si>
-  <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з кассу по договору №11.101.168.14 от 27.03.2014 по услуге ГВС, отопление, пеня теплоэнергия, возмещение госпошлины за 08.04.2022. В том числе НДС 18223,05</t>
-  </si>
-  <si>
-    <t>000-0009228</t>
-  </si>
-  <si>
-    <t>Платежи, принятые ООО "ОЭК" ч/з кассу посредством банковских карт по договору №11.101.168.14 от 27.03.2014 по услуге ГВС, отопление, пеня теплоэнергия за 08.04.2022. В том числе НДС 3852,00</t>
-  </si>
-  <si>
-    <t>000-0008195</t>
-  </si>
-  <si>
     <t>Общество с ограниченной отвественностью "Тепловая компания"</t>
   </si>
   <si>
-    <t>11.101.176.15 от 14.05.2015</t>
-  </si>
-  <si>
-    <t>Денежные средства, поступившие на р/счет ООО "ОЭК" от ПАО "Сбербанк", от НКО "Перспектива" за 08.04.2022, согласно ДС №6 от 24.06.2019г. к АД  №11.101.176.15 от 14.05.2015. В том числе НДС 38486,37</t>
-  </si>
-  <si>
     <t>Условия оплаты: не позднее 2-х рабочих дней с момента принятия платежей</t>
   </si>
   <si>
     <t>ИТОГО EUR:</t>
   </si>
   <si>
-    <t>Курс: 85,9752</t>
-  </si>
-  <si>
     <t>ИТОГО USD:</t>
   </si>
   <si>
-    <t>Курс: 79,1596</t>
-  </si>
-  <si>
     <t>ИТОГО руб:</t>
-  </si>
-  <si>
-    <t>Курс: 1</t>
   </si>
   <si>
     <t>(ответственный сотрудник Дирекции бюджетного контроля
@@ -209,12 +127,90 @@
   <si>
     <t>(руководитель Департамента
  казначейства)</t>
+  </si>
+  <si>
+    <t>ООО "XXX"</t>
+  </si>
+  <si>
+    <t>000-0000232</t>
+  </si>
+  <si>
+    <t>000-0000225</t>
+  </si>
+  <si>
+    <t>000-0000227</t>
+  </si>
+  <si>
+    <t>000-0000228</t>
+  </si>
+  <si>
+    <t>Курс: 85,0752</t>
+  </si>
+  <si>
+    <t>от 02.04.2022 г.</t>
+  </si>
+  <si>
+    <t>Реестр на оплату №000003 от 02.04.2022 г.</t>
+  </si>
+  <si>
+    <t>000-0000230</t>
+  </si>
+  <si>
+    <t>00.004.078.04 от 28.02.03</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з кассу посредством банковских карт за 07-08 апреля 2022г. за природный газ по договору №00.004.078.04 от 28.02.2003г. В том числе НДС 4202,34</t>
+  </si>
+  <si>
+    <t>Условия оплаты: п. 2.0.05. Договора в редакции ДС № 3: «перечислять Принципалу в полном объёме денежные средства, поступившие в кассы Агента, в том числе по платежным картам VISA, MasterCard, и на расчетный счет Агента, в том числе через Интернет-портал Агента, в оплату услуг Принципала, в течение 3-х рабочих дней после их поступления».</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з кассу за 07-08 апреля 2022г. за природный газ по договору №00.004.078.04 от 28.02.2003г. В том числе НДС 8488,70</t>
+  </si>
+  <si>
+    <t>000-0008005</t>
+  </si>
+  <si>
+    <t>Курс: 0</t>
+  </si>
+  <si>
+    <t>05.000.028.08 от 20.02.2008</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з кассу по договору №05.000.028.08 от 20.02.2008 по услуге пеня теплоэнергия, отопление, ГВС за 08.04.2022. В том числе НДС 43307,00</t>
+  </si>
+  <si>
+    <t>000-0008000</t>
+  </si>
+  <si>
+    <t>00.000.008.04 от 27.03.04</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з интернет по договору №00.000.008.04 от 27.03.2004 по услуге пеня теплоэнергия, отопление, ГВС за 07.04.2022. В том числе НДС 8802,72</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з кассу по договору №00.000.008.04 от 27.03.2004 по услуге ГВС, отопление, пеня теплоэнергия, возмещение госпошлины за 08.04.2022. В том числе НДС 08223,05</t>
+  </si>
+  <si>
+    <t>Платежи, принятые ООО "XXX" ч/з кассу посредством банковских карт по договору №00.000.008.04 от 27.03.2004 по услуге ГВС, отопление, пеня теплоэнергия за 08.04.2022. В том числе НДС 3852,00</t>
+  </si>
+  <si>
+    <t>00.000.070.05 от 04.05.2005</t>
+  </si>
+  <si>
+    <t>Денежные средства, поступившие на р/счет ООО "XXX" от ПАО "Сбербанк", от НКО "Перспектива" за 08.04.2022, согласно ДС №0 от 24.00.2000г. к АД  №00.000.070.05 от 04.05.2005. В том числе НДС 38480,37</t>
+  </si>
+  <si>
+    <t>Курс: 70,0500</t>
+  </si>
+  <si>
+    <t>ОАО "XXXXXXXXXX"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
@@ -338,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -397,6 +393,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,11 +408,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,23 +504,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,23 +539,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -749,14 +714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="25" zoomScaleNormal="40" zoomScaleSheetLayoutView="25" zoomScalePageLayoutView="10" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="40" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="10" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -779,68 +744,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="N6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="N6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L9" s="4"/>
@@ -850,314 +815,314 @@
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="N11" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="7" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="25">
+        <v>44653</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="11">
-        <v>25214.04</v>
+        <v>25204.04</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" ht="399.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>22</v>
+      <c r="C13" s="25">
+        <v>44653</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="11">
-        <v>50932.2</v>
+        <v>50032.2</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="7" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="25">
+        <v>44653</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="11">
-        <v>261965.27</v>
+        <v>200005.27</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
+      <c r="C15" s="25">
+        <v>44653</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="11">
         <v>52834.33</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="146.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
+      <c r="C16" s="25">
+        <v>44653</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="11">
-        <v>113544.02</v>
+        <v>3544.02</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:14" s="7" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="8">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>44653</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="11">
-        <v>35273.31</v>
+        <v>35273.300000000003</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:14" s="7" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="8">
         <v>7</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>22</v>
+      <c r="C18" s="25">
+        <v>44653</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="11">
-        <v>230918.19</v>
+        <v>230008</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="14"/>
@@ -1169,14 +1134,14 @@
     </row>
     <row r="20" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="14"/>
@@ -1188,17 +1153,17 @@
     </row>
     <row r="21" spans="2:14" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H21" s="18">
-        <v>770681.36</v>
+        <v>770080.3</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1210,40 +1175,35 @@
     <row r="22" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="2:14" s="19" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="G25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="K25" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="C25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="K25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:I24"/>
@@ -1251,6 +1211,11 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup scale="49" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
